--- a/literature_review/message/trade_parameters.xlsx
+++ b/literature_review/message/trade_parameters.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\message_trade\literature_review\message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D62A7CB-4744-4DCE-8743-08ACE4199BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CEDFC5-594A-4E12-99F1-8C32780824CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8385" activeTab="2" xr2:uid="{45DE8BD4-7907-4C55-857A-1C652EFA390E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{45DE8BD4-7907-4C55-857A-1C652EFA390E}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Pool Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Bilateral Trade Parameters" sheetId="2" r:id="rId2"/>
     <sheet name="Cost parameters" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="106">
   <si>
     <t>Segment</t>
   </si>
@@ -287,6 +288,69 @@
   </si>
   <si>
     <t>Index of level-2 embodied conflict</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>WEU</t>
+  </si>
+  <si>
+    <t>PAO</t>
+  </si>
+  <si>
+    <t>eff_distance</t>
+  </si>
+  <si>
+    <t>eff_dispute</t>
+  </si>
+  <si>
+    <t>eff_war</t>
+  </si>
+  <si>
+    <t>eff_embedded_dispute</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>crudeoil</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>embedded_dispute</t>
+  </si>
+  <si>
+    <t>No conflict</t>
+  </si>
+  <si>
+    <t>Disputes, no conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change the commodity (e.g. gas_exp_weu- gas_weu) + change level too (e.g. "shipped oil") &lt;- remember to change the import level/commodity too </t>
+  </si>
+  <si>
+    <t>check in gdx file</t>
   </si>
 </sst>
 </file>
@@ -310,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +384,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +418,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31A98C1-91C5-40AB-A3BC-2A8CBE5FB08A}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +966,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -896,7 +986,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -955,8 +1045,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
@@ -975,7 +1065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -995,7 +1085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1035,8 +1125,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
@@ -1054,8 +1144,11 @@
       <c r="F21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1075,7 +1168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1095,8 +1188,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
@@ -1114,8 +1207,11 @@
       <c r="F24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1135,7 +1231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1155,7 +1251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1175,8 +1271,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
@@ -1208,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FFD0B9-5379-481E-888E-01E463344E65}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1251,63 +1347,63 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1331,243 +1427,243 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1631,83 +1727,83 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1723,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9A031-B1B8-4DD1-9BCD-F65EF312A3FA}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,4 +1947,528 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0652A9-5D21-4437-BEB6-BBAAA2D75CD2}">
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.50974471180367309</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:G8" ca="1" si="0">RAND()</f>
+        <v>0.79099584639338971</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29692979597798852</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56025872137423438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C8" ca="1" si="1">RAND()</f>
+        <v>0.52733140628565145</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70294402053208838</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13209443174687263</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20439859588664222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10580331382252584</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15303456175959396</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74947638716942178</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61644667717074353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39678185579140968</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70590518657275025</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55002466019500307</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2149562571752055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90248447051473368</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74899993324995362</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4110177820800862E-2</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23393777875757837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10244523317139953</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65008006190019962</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60070757781335415</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10794190415786065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <f ca="1">RANDBETWEEN(100,100000)</f>
+        <v>6261</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D27" ca="1" si="2">RANDBETWEEN(100,100000)</f>
+        <v>63593</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>90024</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>87508</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>56148</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>44346</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>33123</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E17:H27" ca="1" si="3">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>93937</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>75799</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>47307</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>63280</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>73233</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/literature_review/message/trade_parameters.xlsx
+++ b/literature_review/message/trade_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\message_trade\literature_review\message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CEDFC5-594A-4E12-99F1-8C32780824CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232F8349-DD76-402D-A99F-6227BE716B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{45DE8BD4-7907-4C55-857A-1C652EFA390E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{45DE8BD4-7907-4C55-857A-1C652EFA390E}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Pool Parameters" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,12 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,21 +412,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +743,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,8 +756,8 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -966,7 +959,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -986,7 +979,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -1046,7 +1039,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
@@ -1126,7 +1119,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
@@ -1189,7 +1182,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
@@ -1272,7 +1265,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
@@ -1305,7 +1298,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,8 +1310,8 @@
     <col min="5" max="5" width="100.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1347,323 +1340,323 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1707,103 +1700,103 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1832,8 +1825,8 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2000,20 +1993,20 @@
       </c>
       <c r="C3" s="2">
         <f ca="1">RAND()</f>
-        <v>0.50974471180367309</v>
+        <v>0.58104938227948033</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:G8" ca="1" si="0">RAND()</f>
-        <v>0.79099584639338971</v>
+        <v>0.97051700209719405</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29692979597798852</v>
+        <v>9.6858481600026858E-2</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56025872137423438</v>
+        <v>0.26713332480837848</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2025,20 +2018,20 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C8" ca="1" si="1">RAND()</f>
-        <v>0.52733140628565145</v>
+        <v>0.21541786609168845</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70294402053208838</v>
+        <v>0.47963630663391255</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13209443174687263</v>
+        <v>0.13557201671376129</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20439859588664222</v>
+        <v>0.38086399443334451</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2050,20 +2043,20 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10580331382252584</v>
+        <v>0.68885253534471913</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15303456175959396</v>
+        <v>0.67085198654397404</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74947638716942178</v>
+        <v>0.17562259588952001</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61644667717074353</v>
+        <v>0.10775722183507341</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2075,20 +2068,20 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39678185579140968</v>
+        <v>0.43351771679250894</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70590518657275025</v>
+        <v>0.8779093666091492</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55002466019500307</v>
+        <v>0.34066476374251975</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2149562571752055</v>
+        <v>0.8838564970729208</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2100,20 +2093,20 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90248447051473368</v>
+        <v>0.17883583442171702</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74899993324995362</v>
+        <v>0.47932779167283857</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4110177820800862E-2</v>
+        <v>0.21733388216079819</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23393777875757837</v>
+        <v>0.56344292364715465</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2125,20 +2118,20 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10244523317139953</v>
+        <v>0.82902477617447179</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65008006190019962</v>
+        <v>0.96324642404080385</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60070757781335415</v>
+        <v>0.36699554948927915</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10794190415786065</v>
+        <v>0.25745081438786843</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,7 +2153,7 @@
       <c r="F15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2179,7 +2172,7 @@
       </c>
       <c r="D16">
         <f ca="1">RANDBETWEEN(100,100000)</f>
-        <v>6261</v>
+        <v>13227</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2203,7 +2196,7 @@
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D27" ca="1" si="2">RANDBETWEEN(100,100000)</f>
-        <v>63593</v>
+        <v>51699</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2227,7 +2220,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>90024</v>
+        <v>58253</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2251,7 +2244,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>87508</v>
+        <v>52937</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2275,7 +2268,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>56148</v>
+        <v>66504</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2299,7 +2292,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>44346</v>
+        <v>51123</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2323,11 +2316,11 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>33123</v>
+        <v>50785</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E17:H27" ca="1" si="3">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <f t="shared" ref="E22:H27" ca="1" si="3">RANDBETWEEN(0,10)</f>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2349,11 +2342,11 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>93937</v>
+        <v>90466</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2375,7 +2368,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>75799</v>
+        <v>78947</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
@@ -2401,18 +2394,18 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>47307</v>
+        <v>17363</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,7 +2420,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>63280</v>
+        <v>34271</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
@@ -2438,7 +2431,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,18 +2446,18 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>73233</v>
+        <v>36402</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/literature_review/message/trade_parameters.xlsx
+++ b/literature_review/message/trade_parameters.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\message_trade\literature_review\message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232F8349-DD76-402D-A99F-6227BE716B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990216A-6E78-43A0-8D85-0CF6458200E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{45DE8BD4-7907-4C55-857A-1C652EFA390E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{45DE8BD4-7907-4C55-857A-1C652EFA390E}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Pool Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Bilateral Trade Parameters" sheetId="2" r:id="rId2"/>
-    <sheet name="Cost parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Shipping parameters" sheetId="5" r:id="rId3"/>
+    <sheet name="Cost parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Example of Scenarios" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="116">
   <si>
     <t>Segment</t>
   </si>
@@ -351,13 +353,43 @@
   </si>
   <si>
     <t>check in gdx file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters in Shipping </t>
+  </si>
+  <si>
+    <t>liquid_shipping</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>t-km</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://www.euronav.com/media/65361/special-report-2017-eng.pdf</t>
+  </si>
+  <si>
+    <t>ton-km</t>
+  </si>
+  <si>
+    <t>kg/ton-km-y</t>
+  </si>
+  <si>
+    <t>usd/ton-km-y</t>
+  </si>
+  <si>
+    <t>ton-km-y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +401,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,10 +449,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,8 +467,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1297,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FFD0B9-5379-481E-888E-01E463344E65}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,6 +1854,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC744B9-2531-442A-822C-58225F026E50}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{FE3C10C8-8A17-4D80-AF68-0AC3D3FC7F23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9A031-B1B8-4DD1-9BCD-F65EF312A3FA}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1942,12 +2193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0652A9-5D21-4437-BEB6-BBAAA2D75CD2}">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,20 +2244,20 @@
       </c>
       <c r="C3" s="2">
         <f ca="1">RAND()</f>
-        <v>0.58104938227948033</v>
+        <v>0.73156746632663294</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:G8" ca="1" si="0">RAND()</f>
-        <v>0.97051700209719405</v>
+        <v>0.85345417630163678</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6858481600026858E-2</v>
+        <v>4.6627377334629516E-2</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26713332480837848</v>
+        <v>0.39146251116248931</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,20 +2269,20 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C8" ca="1" si="1">RAND()</f>
-        <v>0.21541786609168845</v>
+        <v>0.97565533283582639</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47963630663391255</v>
+        <v>0.63721658367562328</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13557201671376129</v>
+        <v>0.76949831380335665</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38086399443334451</v>
+        <v>0.80083548766094215</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,20 +2294,20 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68885253534471913</v>
+        <v>0.94983058882168958</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67085198654397404</v>
+        <v>0.91562245552577826</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17562259588952001</v>
+        <v>0.43227105406185151</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10775722183507341</v>
+        <v>0.13150439703734362</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2068,20 +2319,20 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43351771679250894</v>
+        <v>0.21229171861981178</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8779093666091492</v>
+        <v>0.82985166543477429</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34066476374251975</v>
+        <v>2.1330144462591516E-2</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8838564970729208</v>
+        <v>0.60166065183073336</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,20 +2344,20 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17883583442171702</v>
+        <v>0.36920841074898703</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47932779167283857</v>
+        <v>0.45356631617130605</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21733388216079819</v>
+        <v>0.10101331334363051</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56344292364715465</v>
+        <v>6.2299695239558806E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2118,20 +2369,20 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82902477617447179</v>
+        <v>0.66349864376319923</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96324642404080385</v>
+        <v>0.59711856733566138</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36699554948927915</v>
+        <v>0.96915303259835428</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25745081438786843</v>
+        <v>0.76709146724882704</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,7 +2423,7 @@
       </c>
       <c r="D16">
         <f ca="1">RANDBETWEEN(100,100000)</f>
-        <v>13227</v>
+        <v>3017</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2196,7 +2447,7 @@
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D27" ca="1" si="2">RANDBETWEEN(100,100000)</f>
-        <v>51699</v>
+        <v>7855</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2220,7 +2471,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>58253</v>
+        <v>84156</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2244,7 +2495,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>52937</v>
+        <v>95298</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2268,7 +2519,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>66504</v>
+        <v>42087</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2292,7 +2543,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>51123</v>
+        <v>78802</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2316,7 +2567,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>50785</v>
+        <v>75906</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:H27" ca="1" si="3">RANDBETWEEN(0,10)</f>
@@ -2327,7 +2578,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,11 +2593,11 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>90466</v>
+        <v>26097</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2368,18 +2619,18 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>78947</v>
+        <v>88241</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2394,7 +2645,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>17363</v>
+        <v>94163</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
@@ -2405,7 +2656,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2420,7 +2671,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>34271</v>
+        <v>35733</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
@@ -2431,7 +2682,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2446,18 +2697,18 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>36402</v>
+        <v>67978</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
